--- a/Flowrate Data/Cali for old.xlsx
+++ b/Flowrate Data/Cali for old.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/LowCostAirPumpCode/Flowrate Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -405,11 +405,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="13089456"/>
-        <c:axId val="12692272"/>
+        <c:axId val="81282288"/>
+        <c:axId val="11017632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13089456"/>
+        <c:axId val="81282288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,12 +452,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12692272"/>
+        <c:crossAx val="11017632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12692272"/>
+        <c:axId val="11017632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13089456"/>
+        <c:crossAx val="81282288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -676,6 +676,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Experimental Line</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -879,11 +882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-95941312"/>
-        <c:axId val="10086928"/>
+        <c:axId val="82939744"/>
+        <c:axId val="82942064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-95941312"/>
+        <c:axId val="82939744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,12 +942,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10086928"/>
+        <c:crossAx val="82942064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10086928"/>
+        <c:axId val="82942064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1000,7 +1003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-95941312"/>
+        <c:crossAx val="82939744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2524,7 +2527,7 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
